--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final/500nodes/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final/500nodes/500.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(SWIB)\Final\500nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(Finished)\Final\500nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81D375-1AC4-43A3-B84D-5F113E68236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CC7BFB-F94A-4961-A59C-7E89623CDCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1552,13 +1552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44:W53"/>
+    <sheetView topLeftCell="G37" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44:V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1584,12 +1584,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>2003</v>
+        <v>1950</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>11911</v>
+        <v>9796</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
@@ -1647,15 +1647,15 @@
       </c>
       <c r="U2">
         <f>R2-H2</f>
-        <v>9908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>13857</v>
+        <v>11739</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>25015</v>
+        <v>24957</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1713,15 +1713,15 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0">R3-H3</f>
-        <v>11158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>399</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>27028</v>
+        <v>26951</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>399</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -1769,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>39113</v>
+        <v>37960</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
@@ -1779,15 +1779,15 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>12085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>41103</v>
+        <v>39969</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -1835,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="R5">
-        <v>52267</v>
+        <v>50059</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1845,15 +1845,15 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>11164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>488</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>54204</v>
+        <v>52054</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>488</v>
+        <v>196</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="R6">
-        <v>64644</v>
+        <v>60945</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -1911,15 +1911,15 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>10440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>66644</v>
+        <v>62959</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>78556</v>
+        <v>74391</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -1977,15 +1977,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>11912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>80547</v>
+        <v>76389</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -2033,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <v>93165</v>
+        <v>86598</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2043,15 +2043,15 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>12618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>95162</v>
+        <v>88603</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>105945</v>
+        <v>98474</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2109,15 +2109,15 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>10783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>107943</v>
+        <v>100481</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>116955</v>
+        <v>109876</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2175,21 +2175,21 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>9012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -2201,25 +2201,25 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>118960</v>
+        <v>109877</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
       </c>
       <c r="J11">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>441</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
         <v>3</v>
@@ -2231,20 +2231,20 @@
         <v>6</v>
       </c>
       <c r="R11">
-        <v>129197</v>
+        <v>122732</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
       </c>
       <c r="T11">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>10237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2270,21 +2270,17 @@
         <v>50</v>
       </c>
       <c r="R12" s="2"/>
-      <c r="T12">
-        <f>AVERAGE(T2:T11)</f>
-        <v>2047</v>
-      </c>
       <c r="U12" s="2">
         <f>AVERAGE(U2:U11)</f>
-        <v>10931.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10481.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -2302,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>1980</v>
+        <v>1991</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2314,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -2332,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="R13">
-        <v>11948</v>
+        <v>10919</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
@@ -2342,15 +2338,15 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>9968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -2368,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>13965</v>
+        <v>12931</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2380,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
@@ -2398,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="R14">
-        <v>23536</v>
+        <v>21213</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
@@ -2408,15 +2404,15 @@
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>9571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -2434,7 +2430,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>25535</v>
+        <v>23187</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2446,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s">
         <v>17</v>
@@ -2464,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="R15">
-        <v>35352</v>
+        <v>31569</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -2474,15 +2470,15 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>9817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -2500,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>37325</v>
+        <v>33569</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2512,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
@@ -2530,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="R16">
-        <v>47160</v>
+        <v>43499</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -2540,15 +2536,15 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>9835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9930</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -2566,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>49170</v>
+        <v>45496</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2578,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s">
         <v>17</v>
@@ -2596,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>61980</v>
+        <v>52762</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2606,15 +2602,15 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>12810</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2632,7 +2628,7 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>63996</v>
+        <v>54764</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2644,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
@@ -2662,7 +2658,7 @@
         <v>6</v>
       </c>
       <c r="R18">
-        <v>75633</v>
+        <v>64659</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2672,15 +2668,15 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>11637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2698,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>77593</v>
+        <v>66658</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2710,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -2728,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="R19">
-        <v>86291</v>
+        <v>76600</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2738,15 +2734,15 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>8698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -2764,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>88291</v>
+        <v>78597</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2776,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="M20" t="s">
         <v>17</v>
@@ -2794,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>98445</v>
+        <v>88357</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -2804,15 +2800,15 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>10154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2830,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>100449</v>
+        <v>90344</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2842,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="M21" t="s">
         <v>17</v>
@@ -2860,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="R21">
-        <v>108838</v>
+        <v>100514</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -2870,21 +2866,21 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>8389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -2896,25 +2892,25 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <v>110837</v>
+        <v>100515</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
       </c>
       <c r="J22">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="s">
         <v>3</v>
@@ -2926,20 +2922,20 @@
         <v>6</v>
       </c>
       <c r="R22">
-        <v>120390</v>
+        <v>107946</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
       </c>
       <c r="T22">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>9553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2965,21 +2961,17 @@
         <v>75</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="T23">
-        <f>AVERAGE(T13:T22)</f>
-        <v>2047</v>
-      </c>
       <c r="U23" s="2">
         <f>AVERAGE(U13:U22)</f>
-        <v>10043.200000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8998.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2997,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>1983</v>
+        <v>1950</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -3009,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -3027,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>10549</v>
+        <v>8919</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
@@ -3037,21 +3029,21 @@
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>8566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>304</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -3063,25 +3055,25 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>12566</v>
+        <v>8920</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
       </c>
       <c r="J25">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>304</v>
+        <v>49</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
         <v>3</v>
@@ -3093,25 +3085,25 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>22852</v>
+        <v>18534</v>
       </c>
       <c r="S25" t="s">
         <v>7</v>
       </c>
       <c r="T25">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>10286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -3129,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>24846</v>
+        <v>20530</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3141,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
@@ -3159,7 +3151,7 @@
         <v>6</v>
       </c>
       <c r="R26">
-        <v>34670</v>
+        <v>27609</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -3169,15 +3161,15 @@
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>9824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -3195,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>36632</v>
+        <v>29615</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3207,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s">
         <v>17</v>
@@ -3225,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="R27">
-        <v>45426</v>
+        <v>37120</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
@@ -3235,15 +3227,15 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>8794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3261,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="H28">
-        <v>47418</v>
+        <v>39120</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3273,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="M28" t="s">
         <v>17</v>
@@ -3291,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="R28">
-        <v>56224</v>
+        <v>47442</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3301,15 +3293,15 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>8806</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>487</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -3327,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="H29">
-        <v>58217</v>
+        <v>49437</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3339,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>487</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>
@@ -3357,7 +3349,7 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <v>67061</v>
+        <v>56660</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
@@ -3367,15 +3359,15 @@
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>8844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -3393,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>69063</v>
+        <v>58599</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3405,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s">
         <v>17</v>
@@ -3423,7 +3415,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>78336</v>
+        <v>67053</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3433,21 +3425,21 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>9273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>62</v>
+        <v>343</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -3459,25 +3451,25 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>80333</v>
+        <v>67054</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
       </c>
       <c r="J31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>62</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s">
         <v>17</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>3</v>
@@ -3489,25 +3481,25 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>88010</v>
+        <v>75099</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
       </c>
       <c r="T31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>7677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -3525,7 +3517,7 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>90011</v>
+        <v>77089</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3537,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="M32" t="s">
         <v>17</v>
@@ -3555,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>98506</v>
+        <v>88534</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
@@ -3565,15 +3557,15 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>8495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>155</v>
+        <v>441</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -3591,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>100516</v>
+        <v>90528</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3603,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>155</v>
+        <v>441</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -3621,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <v>110626</v>
+        <v>99748</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3631,10 +3623,10 @@
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>10110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3660,21 +3652,17 @@
         <v>100</v>
       </c>
       <c r="R34" s="2"/>
-      <c r="T34">
-        <f>AVERAGE(T24:T33)</f>
-        <v>2047</v>
-      </c>
       <c r="U34" s="2">
         <f>AVERAGE(U24:U33)</f>
-        <v>9067.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8387.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -3692,7 +3680,7 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3704,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="L35">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="M35" t="s">
         <v>17</v>
@@ -3722,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="R35">
-        <v>9684</v>
+        <v>10609</v>
       </c>
       <c r="S35" t="s">
         <v>7</v>
@@ -3732,15 +3720,15 @@
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -3758,7 +3746,7 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>11653</v>
+        <v>12622</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3770,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="L36">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
@@ -3788,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="R36">
-        <v>20430</v>
+        <v>19557</v>
       </c>
       <c r="S36" t="s">
         <v>7</v>
@@ -3798,15 +3786,15 @@
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>8777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -3824,7 +3812,7 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>22434</v>
+        <v>21566</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3836,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="M37" t="s">
         <v>17</v>
@@ -3854,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>31874</v>
+        <v>28284</v>
       </c>
       <c r="S37" t="s">
         <v>7</v>
@@ -3864,15 +3852,15 @@
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>9440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -3890,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <v>33874</v>
+        <v>30294</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3902,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="M38" t="s">
         <v>17</v>
@@ -3920,7 +3908,7 @@
         <v>6</v>
       </c>
       <c r="R38">
-        <v>42448</v>
+        <v>38478</v>
       </c>
       <c r="S38" t="s">
         <v>7</v>
@@ -3930,21 +3918,21 @@
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>8574</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>485</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
@@ -3956,25 +3944,25 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>44423</v>
+        <v>38479</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
       </c>
       <c r="J39">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>2</v>
       </c>
       <c r="L39">
-        <v>485</v>
+        <v>196</v>
       </c>
       <c r="M39" t="s">
         <v>17</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="s">
         <v>3</v>
@@ -3986,25 +3974,25 @@
         <v>6</v>
       </c>
       <c r="R39">
-        <v>52938</v>
+        <v>45910</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
       </c>
       <c r="T39">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>8515</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -4022,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>54927</v>
+        <v>47896</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4034,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="M40" t="s">
         <v>17</v>
@@ -4052,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="R40">
-        <v>62689</v>
+        <v>55808</v>
       </c>
       <c r="S40" t="s">
         <v>7</v>
@@ -4062,15 +4050,15 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>7762</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41">
-        <v>417</v>
+        <v>294</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -4088,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>64696</v>
+        <v>57801</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4100,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>417</v>
+        <v>294</v>
       </c>
       <c r="M41" t="s">
         <v>17</v>
@@ -4118,7 +4106,7 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>73969</v>
+        <v>65171</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
@@ -4128,15 +4116,15 @@
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>9273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -4154,7 +4142,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>75973</v>
+        <v>67136</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4166,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="L42">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s">
         <v>17</v>
@@ -4184,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <v>83812</v>
+        <v>74539</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4194,15 +4182,15 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>7839</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -4220,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>85820</v>
+        <v>76534</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4232,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s">
         <v>17</v>
@@ -4250,7 +4238,7 @@
         <v>6</v>
       </c>
       <c r="R43">
-        <v>93978</v>
+        <v>84178</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4260,21 +4248,21 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>8158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>267</v>
+        <v>441</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -4286,25 +4274,25 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>95948</v>
+        <v>84179</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
       </c>
       <c r="J44">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>2</v>
       </c>
       <c r="L44">
-        <v>267</v>
+        <v>441</v>
       </c>
       <c r="M44" t="s">
         <v>17</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>3</v>
@@ -4316,28 +4304,28 @@
         <v>6</v>
       </c>
       <c r="R44">
-        <v>103312</v>
+        <v>91031</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
       </c>
       <c r="T44">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
-        <v>7364</v>
+        <v>6852</v>
       </c>
       <c r="V44">
         <f>U12</f>
-        <v>10931.7</v>
+        <v>10481.6</v>
       </c>
       <c r="W44">
         <f>T12</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4363,29 +4351,25 @@
         <v>125</v>
       </c>
       <c r="R45" s="2"/>
-      <c r="T45">
-        <f>AVERAGE(T35:T44)</f>
-        <v>2047</v>
-      </c>
       <c r="U45" s="2">
         <f>AVERAGE(U35:U44)</f>
-        <v>8340.2000000000007</v>
+        <v>7508</v>
       </c>
       <c r="V45">
         <f>U23</f>
-        <v>10043.200000000001</v>
+        <v>8998.6</v>
       </c>
       <c r="W45">
         <f>T23</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -4403,7 +4387,7 @@
         <v>4</v>
       </c>
       <c r="H46">
-        <v>1982</v>
+        <v>1945</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4415,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="M46" t="s">
         <v>17</v>
@@ -4433,7 +4417,7 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <v>10278</v>
+        <v>9000</v>
       </c>
       <c r="S46" t="s">
         <v>7</v>
@@ -4443,29 +4427,29 @@
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>8296</v>
+        <v>7055</v>
       </c>
       <c r="V46">
         <f>U34</f>
-        <v>9067.5</v>
+        <v>8387.6</v>
       </c>
       <c r="W46">
         <f>T34</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47">
-        <v>383</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -4477,25 +4461,25 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>12283</v>
+        <v>9001</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K47" t="s">
         <v>2</v>
       </c>
       <c r="L47">
-        <v>383</v>
+        <v>49</v>
       </c>
       <c r="M47" t="s">
         <v>17</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="s">
         <v>3</v>
@@ -4507,33 +4491,33 @@
         <v>6</v>
       </c>
       <c r="R47">
-        <v>20399</v>
+        <v>16883</v>
       </c>
       <c r="S47" t="s">
         <v>7</v>
       </c>
       <c r="T47">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>8116</v>
+        <v>7882</v>
       </c>
       <c r="V47">
         <f>U45</f>
-        <v>8340.2000000000007</v>
+        <v>7508</v>
       </c>
       <c r="W47">
         <f>T45</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -4551,7 +4535,7 @@
         <v>4</v>
       </c>
       <c r="H48">
-        <v>22412</v>
+        <v>18868</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4563,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="M48" t="s">
         <v>17</v>
@@ -4581,7 +4565,7 @@
         <v>6</v>
       </c>
       <c r="R48">
-        <v>30602</v>
+        <v>26883</v>
       </c>
       <c r="S48" t="s">
         <v>7</v>
@@ -4591,23 +4575,23 @@
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
-        <v>8190</v>
+        <v>8015</v>
       </c>
       <c r="V48">
         <f>U56</f>
-        <v>7844.4</v>
+        <v>7721.1</v>
       </c>
       <c r="W48">
         <f>T56</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -4625,7 +4609,7 @@
         <v>4</v>
       </c>
       <c r="H49">
-        <v>32607</v>
+        <v>28883</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4637,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="M49" t="s">
         <v>17</v>
@@ -4655,7 +4639,7 @@
         <v>6</v>
       </c>
       <c r="R49">
-        <v>39886</v>
+        <v>37565</v>
       </c>
       <c r="S49" t="s">
         <v>7</v>
@@ -4665,23 +4649,23 @@
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>7279</v>
+        <v>8682</v>
       </c>
       <c r="V49">
         <f>U67</f>
-        <v>6750.7</v>
+        <v>7100</v>
       </c>
       <c r="W49">
         <f>T67</f>
-        <v>1228.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -4699,7 +4683,7 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>41892</v>
+        <v>39565</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4711,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M50" t="s">
         <v>17</v>
@@ -4729,7 +4713,7 @@
         <v>6</v>
       </c>
       <c r="R50">
-        <v>48916</v>
+        <v>46490</v>
       </c>
       <c r="S50" t="s">
         <v>7</v>
@@ -4739,29 +4723,29 @@
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>7024</v>
+        <v>6925</v>
       </c>
       <c r="V50">
         <f>U78</f>
-        <v>7049</v>
+        <v>6396</v>
       </c>
       <c r="W50">
         <f>T78</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51">
-        <v>487</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>3</v>
@@ -4773,25 +4757,25 @@
         <v>4</v>
       </c>
       <c r="H51">
-        <v>50901</v>
+        <v>46491</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
       </c>
       <c r="J51">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>2</v>
       </c>
       <c r="L51">
-        <v>487</v>
+        <v>245</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
         <v>3</v>
@@ -4803,33 +4787,33 @@
         <v>6</v>
       </c>
       <c r="R51">
-        <v>59068</v>
+        <v>53353</v>
       </c>
       <c r="S51" t="s">
         <v>7</v>
       </c>
       <c r="T51">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>8167</v>
+        <v>6862</v>
       </c>
       <c r="V51">
         <f>U89</f>
-        <v>6213.3</v>
+        <v>5929.5</v>
       </c>
       <c r="W51">
         <f>T89</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -4847,7 +4831,7 @@
         <v>4</v>
       </c>
       <c r="H52">
-        <v>61070</v>
+        <v>55364</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4859,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
@@ -4877,7 +4861,7 @@
         <v>6</v>
       </c>
       <c r="R52">
-        <v>69163</v>
+        <v>63375</v>
       </c>
       <c r="S52" t="s">
         <v>7</v>
@@ -4887,23 +4871,23 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>8093</v>
+        <v>8011</v>
       </c>
       <c r="V52">
         <f>U100</f>
-        <v>5735.9</v>
+        <v>5800.6</v>
       </c>
       <c r="W52">
         <f>T100</f>
-        <v>1432.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -4921,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="H53">
-        <v>71175</v>
+        <v>65370</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -4933,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s">
         <v>17</v>
@@ -4951,7 +4935,7 @@
         <v>6</v>
       </c>
       <c r="R53">
-        <v>80147</v>
+        <v>72582</v>
       </c>
       <c r="S53" t="s">
         <v>7</v>
@@ -4961,23 +4945,23 @@
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>8972</v>
+        <v>7212</v>
       </c>
       <c r="V53">
         <f>U111</f>
-        <v>5672.5</v>
+        <v>5700.8</v>
       </c>
       <c r="W53">
         <f>T111</f>
-        <v>1432.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1023.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -4995,7 +4979,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>82153</v>
+        <v>74587</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5007,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="M54" t="s">
         <v>17</v>
@@ -5025,7 +5009,7 @@
         <v>6</v>
       </c>
       <c r="R54">
-        <v>90523</v>
+        <v>82861</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5035,15 +5019,15 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>8370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -5061,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>90524</v>
+        <v>82862</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5073,7 +5057,7 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="M55" t="s">
         <v>17</v>
@@ -5091,7 +5075,7 @@
         <v>6</v>
       </c>
       <c r="R55">
-        <v>96461</v>
+        <v>91155</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
@@ -5101,10 +5085,10 @@
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
-        <v>5937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5130,27 +5114,23 @@
         <v>150</v>
       </c>
       <c r="R56" s="2"/>
-      <c r="T56">
-        <f>AVERAGE(T46:T55)</f>
-        <v>1842.3</v>
-      </c>
       <c r="U56" s="2">
         <f>AVERAGE(U46:U55)</f>
-        <v>7844.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7721.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>3</v>
@@ -5162,25 +5142,25 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1951</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K57" t="s">
         <v>2</v>
       </c>
       <c r="L57">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
         <v>17</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="s">
         <v>3</v>
@@ -5192,31 +5172,31 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>4166</v>
+        <v>8558</v>
       </c>
       <c r="S57" t="s">
         <v>7</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>4166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -5228,25 +5208,25 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>6176</v>
+        <v>8559</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
       </c>
       <c r="J58">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="s">
         <v>3</v>
@@ -5258,25 +5238,25 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>14002</v>
+        <v>15250</v>
       </c>
       <c r="S58" t="s">
         <v>7</v>
       </c>
       <c r="T58">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>7826</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -5294,7 +5274,7 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>16004</v>
+        <v>17247</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5306,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="M59" t="s">
         <v>17</v>
@@ -5324,7 +5304,7 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <v>23590</v>
+        <v>24327</v>
       </c>
       <c r="S59" t="s">
         <v>7</v>
@@ -5334,21 +5314,21 @@
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>7586</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
@@ -5360,25 +5340,25 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>23591</v>
+        <v>26342</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K60" t="s">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="s">
         <v>3</v>
@@ -5390,31 +5370,31 @@
         <v>6</v>
       </c>
       <c r="R60">
-        <v>28013</v>
+        <v>33273</v>
       </c>
       <c r="S60" t="s">
         <v>7</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>4422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -5426,25 +5406,25 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>30012</v>
+        <v>33274</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
       </c>
       <c r="J61">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K61" t="s">
         <v>2</v>
       </c>
       <c r="L61">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c r="M61" t="s">
         <v>17</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="s">
         <v>3</v>
@@ -5456,25 +5436,25 @@
         <v>6</v>
       </c>
       <c r="R61">
-        <v>38988</v>
+        <v>41370</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
       </c>
       <c r="T61">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>8976</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -5492,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>40996</v>
+        <v>43354</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5504,7 +5484,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="M62" t="s">
         <v>17</v>
@@ -5522,7 +5502,7 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>48734</v>
+        <v>49811</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5532,21 +5512,21 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>7738</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
@@ -5558,25 +5538,25 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>48735</v>
+        <v>51809</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K63" t="s">
         <v>2</v>
       </c>
       <c r="L63">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="M63" t="s">
         <v>17</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="s">
         <v>3</v>
@@ -5588,31 +5568,31 @@
         <v>6</v>
       </c>
       <c r="R63">
-        <v>54356</v>
+        <v>59354</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>5621</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
@@ -5624,25 +5604,25 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>56344</v>
+        <v>59355</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
       </c>
       <c r="J64">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
         <v>2</v>
       </c>
       <c r="L64">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>3</v>
@@ -5654,25 +5634,25 @@
         <v>6</v>
       </c>
       <c r="R64">
-        <v>64600</v>
+        <v>66698</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
       </c>
       <c r="T64">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>8256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -5690,7 +5670,7 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>66591</v>
+        <v>68697</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -5702,7 +5682,7 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="M65" t="s">
         <v>17</v>
@@ -5720,7 +5700,7 @@
         <v>6</v>
       </c>
       <c r="R65">
-        <v>74932</v>
+        <v>75849</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
@@ -5730,21 +5710,21 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>8341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>283</v>
+        <v>441</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="s">
         <v>3</v>
@@ -5756,25 +5736,25 @@
         <v>4</v>
       </c>
       <c r="H66">
-        <v>74933</v>
+        <v>77854</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K66" t="s">
         <v>2</v>
       </c>
       <c r="L66">
-        <v>283</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="s">
         <v>3</v>
@@ -5786,20 +5766,20 @@
         <v>6</v>
       </c>
       <c r="R66">
-        <v>79508</v>
+        <v>84952</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
-        <v>4575</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5825,21 +5805,17 @@
         <v>175</v>
       </c>
       <c r="R67" s="2"/>
-      <c r="T67">
-        <f>AVERAGE(T57:T66)</f>
-        <v>1228.2</v>
-      </c>
       <c r="U67" s="2">
         <f>AVERAGE(U57:U66)</f>
-        <v>6750.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -5857,7 +5833,7 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>1983</v>
+        <v>1923</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
@@ -5869,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="L68">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="M68" t="s">
         <v>17</v>
@@ -5887,7 +5863,7 @@
         <v>6</v>
       </c>
       <c r="R68">
-        <v>9369</v>
+        <v>8808</v>
       </c>
       <c r="S68" t="s">
         <v>7</v>
@@ -5897,21 +5873,21 @@
       </c>
       <c r="U68">
         <f t="shared" ref="U68:U110" si="1">R68-H68</f>
-        <v>7386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>3</v>
@@ -5923,25 +5899,25 @@
         <v>4</v>
       </c>
       <c r="H69">
-        <v>11368</v>
+        <v>8809</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
       </c>
       <c r="J69">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
         <v>3</v>
@@ -5953,25 +5929,25 @@
         <v>6</v>
       </c>
       <c r="R69">
-        <v>19253</v>
+        <v>14999</v>
       </c>
       <c r="S69" t="s">
         <v>7</v>
       </c>
       <c r="T69">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <f t="shared" si="1"/>
-        <v>7885</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>407</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -5989,7 +5965,7 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>21260</v>
+        <v>17004</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
@@ -6001,7 +5977,7 @@
         <v>2</v>
       </c>
       <c r="L70">
-        <v>407</v>
+        <v>98</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
@@ -6019,7 +5995,7 @@
         <v>6</v>
       </c>
       <c r="R70">
-        <v>28724</v>
+        <v>23223</v>
       </c>
       <c r="S70" t="s">
         <v>7</v>
@@ -6029,21 +6005,21 @@
       </c>
       <c r="U70">
         <f t="shared" si="1"/>
-        <v>7464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
@@ -6055,25 +6031,25 @@
         <v>4</v>
       </c>
       <c r="H71">
-        <v>30732</v>
+        <v>23224</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
       </c>
       <c r="J71">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
         <v>2</v>
       </c>
       <c r="L71">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="M71" t="s">
         <v>17</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="s">
         <v>3</v>
@@ -6085,25 +6061,25 @@
         <v>6</v>
       </c>
       <c r="R71">
-        <v>38392</v>
+        <v>29531</v>
       </c>
       <c r="S71" t="s">
         <v>7</v>
       </c>
       <c r="T71">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U71">
         <f t="shared" si="1"/>
-        <v>7660</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -6121,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="H72">
-        <v>40392</v>
+        <v>31500</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
@@ -6133,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="L72">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
@@ -6151,7 +6127,7 @@
         <v>6</v>
       </c>
       <c r="R72">
-        <v>47620</v>
+        <v>38229</v>
       </c>
       <c r="S72" t="s">
         <v>7</v>
@@ -6161,21 +6137,21 @@
       </c>
       <c r="U72">
         <f t="shared" si="1"/>
-        <v>7228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -6187,25 +6163,25 @@
         <v>4</v>
       </c>
       <c r="H73">
-        <v>49627</v>
+        <v>38230</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
       </c>
       <c r="J73">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
       </c>
       <c r="L73">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="M73" t="s">
         <v>17</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="s">
         <v>3</v>
@@ -6217,31 +6193,31 @@
         <v>6</v>
       </c>
       <c r="R73">
-        <v>57307</v>
+        <v>44559</v>
       </c>
       <c r="S73" t="s">
         <v>7</v>
       </c>
       <c r="T73">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <f t="shared" si="1"/>
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
         <v>3</v>
@@ -6253,25 +6229,25 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>57308</v>
+        <v>46557</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K74" t="s">
         <v>2</v>
       </c>
       <c r="L74">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="M74" t="s">
         <v>17</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="s">
         <v>3</v>
@@ -6283,31 +6259,31 @@
         <v>6</v>
       </c>
       <c r="R74">
-        <v>61402</v>
+        <v>53208</v>
       </c>
       <c r="S74" t="s">
         <v>7</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U74">
         <f t="shared" si="1"/>
-        <v>4094</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
@@ -6319,25 +6295,25 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>63403</v>
+        <v>53209</v>
       </c>
       <c r="I75" t="s">
         <v>5</v>
       </c>
       <c r="J75">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
         <v>2</v>
       </c>
       <c r="L75">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="s">
         <v>3</v>
@@ -6349,25 +6325,25 @@
         <v>6</v>
       </c>
       <c r="R75">
-        <v>70081</v>
+        <v>59549</v>
       </c>
       <c r="S75" t="s">
         <v>7</v>
       </c>
       <c r="T75">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U75">
         <f t="shared" si="1"/>
-        <v>6678</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -6385,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <v>72021</v>
+        <v>61549</v>
       </c>
       <c r="I76" t="s">
         <v>5</v>
@@ -6397,7 +6373,7 @@
         <v>2</v>
       </c>
       <c r="L76">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="M76" t="s">
         <v>17</v>
@@ -6415,7 +6391,7 @@
         <v>6</v>
       </c>
       <c r="R76">
-        <v>79639</v>
+        <v>67863</v>
       </c>
       <c r="S76" t="s">
         <v>7</v>
@@ -6425,15 +6401,15 @@
       </c>
       <c r="U76">
         <f t="shared" si="1"/>
-        <v>7618</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -6451,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <v>81616</v>
+        <v>69851</v>
       </c>
       <c r="I77" t="s">
         <v>5</v>
@@ -6463,7 +6439,7 @@
         <v>2</v>
       </c>
       <c r="L77">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="M77" t="s">
         <v>17</v>
@@ -6481,7 +6457,7 @@
         <v>6</v>
       </c>
       <c r="R77">
-        <v>88413</v>
+        <v>75847</v>
       </c>
       <c r="S77" t="s">
         <v>7</v>
@@ -6491,10 +6467,10 @@
       </c>
       <c r="U77">
         <f t="shared" si="1"/>
-        <v>6797</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6520,27 +6496,23 @@
         <v>200</v>
       </c>
       <c r="R78" s="2"/>
-      <c r="T78">
-        <f>AVERAGE(T68:T77)</f>
-        <v>1842.3</v>
-      </c>
       <c r="U78" s="2">
         <f>AVERAGE(U68:U77)</f>
-        <v>7049</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -6552,25 +6524,25 @@
         <v>4</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="I79" t="s">
         <v>5</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K79" t="s">
         <v>2</v>
       </c>
       <c r="L79">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="M79" t="s">
         <v>17</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="s">
         <v>3</v>
@@ -6582,31 +6554,31 @@
         <v>6</v>
       </c>
       <c r="R79">
-        <v>4328</v>
+        <v>7744</v>
       </c>
       <c r="S79" t="s">
         <v>7</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U79">
         <f t="shared" si="1"/>
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80">
-        <v>463</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>3</v>
@@ -6618,25 +6590,25 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>6320</v>
+        <v>7745</v>
       </c>
       <c r="I80" t="s">
         <v>5</v>
       </c>
       <c r="J80">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
         <v>2</v>
       </c>
       <c r="L80">
-        <v>463</v>
+        <v>49</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="s">
         <v>3</v>
@@ -6648,31 +6620,31 @@
         <v>6</v>
       </c>
       <c r="R80">
-        <v>13344</v>
+        <v>13650</v>
       </c>
       <c r="S80" t="s">
         <v>7</v>
       </c>
       <c r="T80">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U80">
         <f t="shared" si="1"/>
-        <v>7024</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -6684,25 +6656,25 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <v>13345</v>
+        <v>15648</v>
       </c>
       <c r="I81" t="s">
         <v>5</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K81" t="s">
         <v>2</v>
       </c>
       <c r="L81">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M81" t="s">
         <v>17</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="s">
         <v>3</v>
@@ -6714,31 +6686,31 @@
         <v>6</v>
       </c>
       <c r="R81">
-        <v>16839</v>
+        <v>21782</v>
       </c>
       <c r="S81" t="s">
         <v>7</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U81">
         <f t="shared" si="1"/>
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82">
-        <v>493</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -6750,25 +6722,25 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>18847</v>
+        <v>21783</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
       </c>
       <c r="J82">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
         <v>2</v>
       </c>
       <c r="L82">
-        <v>493</v>
+        <v>147</v>
       </c>
       <c r="M82" t="s">
         <v>17</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
         <v>3</v>
@@ -6780,25 +6752,25 @@
         <v>6</v>
       </c>
       <c r="R82">
-        <v>25930</v>
+        <v>27584</v>
       </c>
       <c r="S82" t="s">
         <v>7</v>
       </c>
       <c r="T82">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U82">
         <f t="shared" si="1"/>
-        <v>7083</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83">
-        <v>434</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -6816,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="H83">
-        <v>27940</v>
+        <v>29571</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
@@ -6828,7 +6800,7 @@
         <v>2</v>
       </c>
       <c r="L83">
-        <v>434</v>
+        <v>196</v>
       </c>
       <c r="M83" t="s">
         <v>17</v>
@@ -6846,7 +6818,7 @@
         <v>6</v>
       </c>
       <c r="R83">
-        <v>34558</v>
+        <v>35452</v>
       </c>
       <c r="S83" t="s">
         <v>7</v>
@@ -6856,21 +6828,21 @@
       </c>
       <c r="U83">
         <f t="shared" si="1"/>
-        <v>6618</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -6882,25 +6854,25 @@
         <v>4</v>
       </c>
       <c r="H84">
-        <v>36543</v>
+        <v>35453</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
       </c>
       <c r="J84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
         <v>2</v>
       </c>
       <c r="L84">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="M84" t="s">
         <v>17</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
         <v>3</v>
@@ -6912,25 +6884,25 @@
         <v>6</v>
       </c>
       <c r="R84">
-        <v>43054</v>
+        <v>41549</v>
       </c>
       <c r="S84" t="s">
         <v>7</v>
       </c>
       <c r="T84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U84">
         <f t="shared" si="1"/>
-        <v>6511</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
-        <v>400</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -6948,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>45036</v>
+        <v>43550</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
@@ -6960,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="L85">
-        <v>400</v>
+        <v>294</v>
       </c>
       <c r="M85" t="s">
         <v>17</v>
@@ -6978,7 +6950,7 @@
         <v>6</v>
       </c>
       <c r="R85">
-        <v>51945</v>
+        <v>49384</v>
       </c>
       <c r="S85" t="s">
         <v>7</v>
@@ -6988,21 +6960,21 @@
       </c>
       <c r="U85">
         <f t="shared" si="1"/>
-        <v>6909</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5834</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -7014,25 +6986,25 @@
         <v>4</v>
       </c>
       <c r="H86">
-        <v>53942</v>
+        <v>49385</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
       </c>
       <c r="J86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>2</v>
       </c>
       <c r="L86">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="M86" t="s">
         <v>17</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
         <v>3</v>
@@ -7044,25 +7016,25 @@
         <v>6</v>
       </c>
       <c r="R86">
-        <v>60843</v>
+        <v>55221</v>
       </c>
       <c r="S86" t="s">
         <v>7</v>
       </c>
       <c r="T86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U86">
         <f t="shared" si="1"/>
-        <v>6901</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -7080,7 +7052,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <v>62829</v>
+        <v>57214</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
@@ -7092,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="M87" t="s">
         <v>17</v>
@@ -7110,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="R87">
-        <v>69710</v>
+        <v>62855</v>
       </c>
       <c r="S87" t="s">
         <v>7</v>
@@ -7120,15 +7092,15 @@
       </c>
       <c r="U87">
         <f t="shared" si="1"/>
-        <v>6881</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -7146,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>71713</v>
+        <v>64841</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
@@ -7158,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="L88">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="M88" t="s">
         <v>17</v>
@@ -7176,7 +7148,7 @@
         <v>6</v>
       </c>
       <c r="R88">
-        <v>78097</v>
+        <v>71199</v>
       </c>
       <c r="S88" t="s">
         <v>7</v>
@@ -7186,10 +7158,10 @@
       </c>
       <c r="U88">
         <f t="shared" si="1"/>
-        <v>6384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7215,21 +7187,17 @@
         <v>225</v>
       </c>
       <c r="R89" s="2"/>
-      <c r="T89">
-        <f>AVERAGE(T79:T88)</f>
-        <v>1637.6</v>
-      </c>
       <c r="U89" s="2">
         <f>AVERAGE(U79:U88)</f>
-        <v>6213.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5929.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -7247,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>1978</v>
+        <v>1869</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
@@ -7259,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="L90">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="M90" t="s">
         <v>17</v>
@@ -7277,7 +7245,7 @@
         <v>6</v>
       </c>
       <c r="R90">
-        <v>9025</v>
+        <v>7535</v>
       </c>
       <c r="S90" t="s">
         <v>7</v>
@@ -7287,21 +7255,21 @@
       </c>
       <c r="U90">
         <f t="shared" si="1"/>
-        <v>7047</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -7313,25 +7281,25 @@
         <v>4</v>
       </c>
       <c r="H91">
-        <v>11033</v>
+        <v>7536</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
       </c>
       <c r="J91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
         <v>2</v>
       </c>
       <c r="L91">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M91" t="s">
         <v>17</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
         <v>3</v>
@@ -7343,31 +7311,31 @@
         <v>6</v>
       </c>
       <c r="R91">
-        <v>17655</v>
+        <v>13510</v>
       </c>
       <c r="S91" t="s">
         <v>7</v>
       </c>
       <c r="T91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U91">
         <f t="shared" si="1"/>
-        <v>6622</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
@@ -7379,25 +7347,25 @@
         <v>4</v>
       </c>
       <c r="H92">
-        <v>17656</v>
+        <v>15512</v>
       </c>
       <c r="I92" t="s">
         <v>5</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K92" t="s">
         <v>2</v>
       </c>
       <c r="L92">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="M92" t="s">
         <v>17</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="s">
         <v>3</v>
@@ -7409,25 +7377,25 @@
         <v>6</v>
       </c>
       <c r="R92">
-        <v>21402</v>
+        <v>21333</v>
       </c>
       <c r="S92" t="s">
         <v>7</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U92">
         <f t="shared" si="1"/>
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93">
-        <v>429</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -7445,7 +7413,7 @@
         <v>4</v>
       </c>
       <c r="H93">
-        <v>21403</v>
+        <v>21334</v>
       </c>
       <c r="I93" t="s">
         <v>5</v>
@@ -7457,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="L93">
-        <v>429</v>
+        <v>147</v>
       </c>
       <c r="M93" t="s">
         <v>17</v>
@@ -7475,7 +7443,7 @@
         <v>6</v>
       </c>
       <c r="R93">
-        <v>24621</v>
+        <v>27153</v>
       </c>
       <c r="S93" t="s">
         <v>7</v>
@@ -7485,15 +7453,15 @@
       </c>
       <c r="U93">
         <f t="shared" si="1"/>
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -7511,7 +7479,7 @@
         <v>4</v>
       </c>
       <c r="H94">
-        <v>26632</v>
+        <v>29149</v>
       </c>
       <c r="I94" t="s">
         <v>5</v>
@@ -7523,7 +7491,7 @@
         <v>2</v>
       </c>
       <c r="L94">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="M94" t="s">
         <v>17</v>
@@ -7541,7 +7509,7 @@
         <v>6</v>
       </c>
       <c r="R94">
-        <v>32925</v>
+        <v>34837</v>
       </c>
       <c r="S94" t="s">
         <v>7</v>
@@ -7551,15 +7519,15 @@
       </c>
       <c r="U94">
         <f t="shared" si="1"/>
-        <v>6293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95">
-        <v>409</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -7577,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>32926</v>
+        <v>34838</v>
       </c>
       <c r="I95" t="s">
         <v>5</v>
@@ -7589,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>409</v>
+        <v>245</v>
       </c>
       <c r="M95" t="s">
         <v>17</v>
@@ -7607,7 +7575,7 @@
         <v>6</v>
       </c>
       <c r="R95">
-        <v>36423</v>
+        <v>40803</v>
       </c>
       <c r="S95" t="s">
         <v>7</v>
@@ -7617,15 +7585,15 @@
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>3497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -7643,7 +7611,7 @@
         <v>4</v>
       </c>
       <c r="H96">
-        <v>38396</v>
+        <v>42793</v>
       </c>
       <c r="I96" t="s">
         <v>5</v>
@@ -7655,7 +7623,7 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M96" t="s">
         <v>17</v>
@@ -7673,7 +7641,7 @@
         <v>6</v>
       </c>
       <c r="R96">
-        <v>45201</v>
+        <v>48688</v>
       </c>
       <c r="S96" t="s">
         <v>7</v>
@@ -7683,21 +7651,21 @@
       </c>
       <c r="U96">
         <f t="shared" si="1"/>
-        <v>6805</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
@@ -7709,25 +7677,25 @@
         <v>4</v>
       </c>
       <c r="H97">
-        <v>47197</v>
+        <v>48689</v>
       </c>
       <c r="I97" t="s">
         <v>5</v>
       </c>
       <c r="J97">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K97" t="s">
         <v>2</v>
       </c>
       <c r="L97">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="M97" t="s">
         <v>17</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
         <v>3</v>
@@ -7739,25 +7707,25 @@
         <v>6</v>
       </c>
       <c r="R97">
-        <v>53816</v>
+        <v>54413</v>
       </c>
       <c r="S97" t="s">
         <v>7</v>
       </c>
       <c r="T97">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <f t="shared" si="1"/>
-        <v>6619</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -7775,7 +7743,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>55818</v>
+        <v>56412</v>
       </c>
       <c r="I98" t="s">
         <v>5</v>
@@ -7787,7 +7755,7 @@
         <v>2</v>
       </c>
       <c r="L98">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="M98" t="s">
         <v>17</v>
@@ -7805,7 +7773,7 @@
         <v>6</v>
       </c>
       <c r="R98">
-        <v>62734</v>
+        <v>62202</v>
       </c>
       <c r="S98" t="s">
         <v>7</v>
@@ -7815,21 +7783,21 @@
       </c>
       <c r="U98">
         <f t="shared" si="1"/>
-        <v>6916</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
@@ -7841,25 +7809,25 @@
         <v>4</v>
       </c>
       <c r="H99">
-        <v>64738</v>
+        <v>62203</v>
       </c>
       <c r="I99" t="s">
         <v>5</v>
       </c>
       <c r="J99">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K99" t="s">
         <v>2</v>
       </c>
       <c r="L99">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="M99" t="s">
         <v>17</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="s">
         <v>3</v>
@@ -7871,20 +7839,20 @@
         <v>6</v>
       </c>
       <c r="R99">
-        <v>71334</v>
+        <v>67867</v>
       </c>
       <c r="S99" t="s">
         <v>7</v>
       </c>
       <c r="T99">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U99">
         <f t="shared" si="1"/>
-        <v>6596</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5664</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7910,21 +7878,17 @@
         <v>240</v>
       </c>
       <c r="R100" s="2"/>
-      <c r="T100">
-        <f>AVERAGE(T90:T99)</f>
-        <v>1432.9</v>
-      </c>
       <c r="U100" s="2">
         <f>AVERAGE(U90:U99)</f>
-        <v>5735.9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5800.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2</v>
       </c>
       <c r="B101">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -7942,7 +7906,7 @@
         <v>4</v>
       </c>
       <c r="H101">
-        <v>2002</v>
+        <v>1894</v>
       </c>
       <c r="I101" t="s">
         <v>5</v>
@@ -7954,7 +7918,7 @@
         <v>2</v>
       </c>
       <c r="L101">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="M101" t="s">
         <v>17</v>
@@ -7972,7 +7936,7 @@
         <v>6</v>
       </c>
       <c r="R101">
-        <v>8937</v>
+        <v>7840</v>
       </c>
       <c r="S101" t="s">
         <v>7</v>
@@ -7982,15 +7946,15 @@
       </c>
       <c r="U101">
         <f t="shared" si="1"/>
-        <v>6935</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -8008,7 +7972,7 @@
         <v>4</v>
       </c>
       <c r="H102">
-        <v>8938</v>
+        <v>7841</v>
       </c>
       <c r="I102" t="s">
         <v>5</v>
@@ -8020,7 +7984,7 @@
         <v>2</v>
       </c>
       <c r="L102">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="M102" t="s">
         <v>17</v>
@@ -8038,7 +8002,7 @@
         <v>6</v>
       </c>
       <c r="R102">
-        <v>12276</v>
+        <v>13397</v>
       </c>
       <c r="S102" t="s">
         <v>7</v>
@@ -8048,15 +8012,15 @@
       </c>
       <c r="U102">
         <f t="shared" si="1"/>
-        <v>3338</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103">
-        <v>491</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -8074,7 +8038,7 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <v>14266</v>
+        <v>15398</v>
       </c>
       <c r="I103" t="s">
         <v>5</v>
@@ -8086,7 +8050,7 @@
         <v>2</v>
       </c>
       <c r="L103">
-        <v>491</v>
+        <v>98</v>
       </c>
       <c r="M103" t="s">
         <v>17</v>
@@ -8104,7 +8068,7 @@
         <v>6</v>
       </c>
       <c r="R103">
-        <v>21060</v>
+        <v>21316</v>
       </c>
       <c r="S103" t="s">
         <v>7</v>
@@ -8114,15 +8078,15 @@
       </c>
       <c r="U103">
         <f t="shared" si="1"/>
-        <v>6794</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
@@ -8140,7 +8104,7 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <v>21061</v>
+        <v>21317</v>
       </c>
       <c r="I104" t="s">
         <v>5</v>
@@ -8152,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="L104">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
@@ -8170,7 +8134,7 @@
         <v>6</v>
       </c>
       <c r="R104">
-        <v>24475</v>
+        <v>27223</v>
       </c>
       <c r="S104" t="s">
         <v>7</v>
@@ -8180,15 +8144,15 @@
       </c>
       <c r="U104">
         <f t="shared" si="1"/>
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
@@ -8206,7 +8170,7 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>26478</v>
+        <v>29199</v>
       </c>
       <c r="I105" t="s">
         <v>5</v>
@@ -8218,7 +8182,7 @@
         <v>2</v>
       </c>
       <c r="L105">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="M105" t="s">
         <v>17</v>
@@ -8236,7 +8200,7 @@
         <v>6</v>
       </c>
       <c r="R105">
-        <v>32873</v>
+        <v>34760</v>
       </c>
       <c r="S105" t="s">
         <v>7</v>
@@ -8246,15 +8210,15 @@
       </c>
       <c r="U105">
         <f t="shared" si="1"/>
-        <v>6395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -8272,7 +8236,7 @@
         <v>4</v>
       </c>
       <c r="H106">
-        <v>32874</v>
+        <v>34761</v>
       </c>
       <c r="I106" t="s">
         <v>5</v>
@@ -8284,7 +8248,7 @@
         <v>2</v>
       </c>
       <c r="L106">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="M106" t="s">
         <v>17</v>
@@ -8302,7 +8266,7 @@
         <v>6</v>
       </c>
       <c r="R106">
-        <v>36417</v>
+        <v>40400</v>
       </c>
       <c r="S106" t="s">
         <v>7</v>
@@ -8312,15 +8276,15 @@
       </c>
       <c r="U106">
         <f t="shared" si="1"/>
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -8338,7 +8302,7 @@
         <v>4</v>
       </c>
       <c r="H107">
-        <v>38402</v>
+        <v>42381</v>
       </c>
       <c r="I107" t="s">
         <v>5</v>
@@ -8350,7 +8314,7 @@
         <v>2</v>
       </c>
       <c r="L107">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
@@ -8368,7 +8332,7 @@
         <v>6</v>
       </c>
       <c r="R107">
-        <v>44553</v>
+        <v>48055</v>
       </c>
       <c r="S107" t="s">
         <v>7</v>
@@ -8378,21 +8342,21 @@
       </c>
       <c r="U107">
         <f t="shared" si="1"/>
-        <v>6151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
@@ -8404,25 +8368,25 @@
         <v>4</v>
       </c>
       <c r="H108">
-        <v>46540</v>
+        <v>48056</v>
       </c>
       <c r="I108" t="s">
         <v>5</v>
       </c>
       <c r="J108">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K108" t="s">
         <v>2</v>
       </c>
       <c r="L108">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="s">
         <v>3</v>
@@ -8434,25 +8398,25 @@
         <v>6</v>
       </c>
       <c r="R108">
-        <v>53321</v>
+        <v>53598</v>
       </c>
       <c r="S108" t="s">
         <v>7</v>
       </c>
       <c r="T108">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U108">
         <f t="shared" si="1"/>
-        <v>6781</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
@@ -8470,7 +8434,7 @@
         <v>4</v>
       </c>
       <c r="H109">
-        <v>55326</v>
+        <v>55609</v>
       </c>
       <c r="I109" t="s">
         <v>5</v>
@@ -8482,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="L109">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
@@ -8500,7 +8464,7 @@
         <v>6</v>
       </c>
       <c r="R109">
-        <v>61935</v>
+        <v>61125</v>
       </c>
       <c r="S109" t="s">
         <v>7</v>
@@ -8510,21 +8474,21 @@
       </c>
       <c r="U109">
         <f t="shared" si="1"/>
-        <v>6609</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110">
-        <v>24</v>
+        <v>441</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>3</v>
@@ -8536,25 +8500,25 @@
         <v>4</v>
       </c>
       <c r="H110">
-        <v>63946</v>
+        <v>61126</v>
       </c>
       <c r="I110" t="s">
         <v>5</v>
       </c>
       <c r="J110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K110" t="s">
         <v>2</v>
       </c>
       <c r="L110">
-        <v>24</v>
+        <v>441</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
         <v>3</v>
@@ -8566,28 +8530,28 @@
         <v>6</v>
       </c>
       <c r="R110">
-        <v>70711</v>
+        <v>66876</v>
       </c>
       <c r="S110" t="s">
         <v>7</v>
       </c>
       <c r="T110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U110">
         <f t="shared" si="1"/>
-        <v>6765</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R111" s="2"/>
       <c r="T111">
         <f>AVERAGE(T101:T110)</f>
-        <v>1432.9</v>
+        <v>1023.5</v>
       </c>
       <c r="U111" s="2">
         <f>AVERAGE(U101:U110)</f>
-        <v>5672.5</v>
+        <v>5700.8</v>
       </c>
     </row>
   </sheetData>
@@ -8601,19 +8565,19 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8636,322 +8600,322 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
       <c r="B2">
-        <v>10931.7</v>
+        <v>10481.6</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.54658499999999999</v>
+        <v>0.52407999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>3745.0716722925072</v>
+        <v>3515.303007174477</v>
       </c>
       <c r="G2">
         <f>ROUND(C2,6)</f>
-        <v>0.54658499999999999</v>
+        <v>0.52407999999999999</v>
       </c>
       <c r="H2">
         <f>FLOOR(E2,1)</f>
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>10043.200000000001</v>
+        <v>8998.6</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.50216000000000005</v>
+        <v>0.44993</v>
       </c>
       <c r="D3" s="1">
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3/C3</f>
-        <v>4076.3899952206466</v>
+        <v>4094.6369435245483</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">ROUND(C3,6)</f>
-        <v>0.50216000000000005</v>
+        <v>0.44993</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="3">FLOOR(E3,1)</f>
-        <v>4076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
       <c r="B4">
-        <v>9067.5</v>
+        <v>8387.6</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.45337499999999997</v>
+        <v>0.41937999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>2047</v>
+        <v>1637.6</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>4515.0261924455472</v>
+        <v>3904.8118651342456</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.45337499999999997</v>
+        <v>0.41937999999999998</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>4515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
       <c r="B5">
-        <v>8340.2000000000007</v>
+        <v>7508</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.41701000000000005</v>
+        <v>0.37540000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>2047</v>
+        <v>1637.6</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>4908.75518572696</v>
+        <v>4362.2802344166221</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.41700999999999999</v>
+        <v>0.37540000000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>4908</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
       <c r="B6">
-        <v>7844.4</v>
+        <v>7721.1</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.39222000000000001</v>
+        <v>0.38605499999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>1842.3</v>
+        <v>1432.9</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>4697.108765488756</v>
+        <v>3711.647304140602</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.39222000000000001</v>
+        <v>0.38605499999999998</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>4697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
       <c r="B7">
-        <v>6750.7</v>
+        <v>7100</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.33753499999999997</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>1228.2</v>
+        <v>1432.9</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>3638.7337609433098</v>
+        <v>4036.3380281690147</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.33753499999999997</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>3638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
       <c r="B8">
-        <v>7049</v>
+        <v>6396</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.35244999999999999</v>
+        <v>0.31979999999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>1842.3</v>
+        <v>1228.2</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>5227.1244148106116</v>
+        <v>3840.5253283302068</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.35244999999999999</v>
+        <v>0.31979999999999997</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>5227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
       <c r="B9">
-        <v>6213.3</v>
+        <v>5929.5</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.31066500000000002</v>
+        <v>0.29647499999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>1637.6</v>
+        <v>1228.2</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>5271.2729145542617</v>
+        <v>4142.6764482671388</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.31066500000000002</v>
+        <v>0.29647499999999999</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>5271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
       <c r="B10">
-        <v>5735.9</v>
+        <v>5800.6</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.28679500000000002</v>
+        <v>0.29003000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>1432.9</v>
+        <v>1023.5</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>4996.2516780278593</v>
+        <v>3528.9452815226009</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0.28679500000000002</v>
+        <v>0.29003000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>4996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
       <c r="B11">
-        <v>5672.5</v>
+        <v>5700.8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.28362500000000002</v>
+        <v>0.28504000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>1432.9</v>
+        <v>1023.5</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>5052.0934332304978</v>
+        <v>3590.7241088969968</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0.28362500000000002</v>
+        <v>0.28504000000000002</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>5052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>0.26252500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>0.25872000000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>0.25234499999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>0.25135999999999997</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>0.24887999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>0.24548500000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0.24379999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>0.24027499999999999</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>0.242585</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>0.240735</v>
       </c>
@@ -8970,12 +8934,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +8950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -8997,7 +8961,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -9008,7 +8972,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -9019,7 +8983,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -9030,7 +8994,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -9041,7 +9005,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -9052,7 +9016,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -9063,7 +9027,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -9074,7 +9038,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -9085,7 +9049,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
